--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>43.99002066666666</v>
+        <v>76.16539233333333</v>
       </c>
       <c r="H2">
-        <v>131.970062</v>
+        <v>228.496177</v>
       </c>
       <c r="I2">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125765</v>
       </c>
       <c r="J2">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125764</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.917360666666667</v>
+        <v>3.771625333333333</v>
       </c>
       <c r="N2">
-        <v>5.752082000000001</v>
+        <v>11.314876</v>
       </c>
       <c r="O2">
-        <v>0.7195063496280686</v>
+        <v>0.7452169260344172</v>
       </c>
       <c r="P2">
-        <v>0.7195063496280685</v>
+        <v>0.7452169260344171</v>
       </c>
       <c r="Q2">
-        <v>84.34473535212044</v>
+        <v>287.2673232476724</v>
       </c>
       <c r="R2">
-        <v>759.1026181690839</v>
+        <v>2585.405909229052</v>
       </c>
       <c r="S2">
-        <v>0.3413848717321538</v>
+        <v>0.4279141433288568</v>
       </c>
       <c r="T2">
-        <v>0.3413848717321538</v>
+        <v>0.4279141433288566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>43.99002066666666</v>
+        <v>76.16539233333333</v>
       </c>
       <c r="H3">
-        <v>131.970062</v>
+        <v>228.496177</v>
       </c>
       <c r="I3">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125765</v>
       </c>
       <c r="J3">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125764</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3326733333333334</v>
+        <v>0.3326733333333333</v>
       </c>
       <c r="N3">
-        <v>0.9980200000000001</v>
+        <v>0.99802</v>
       </c>
       <c r="O3">
-        <v>0.1248385761982887</v>
+        <v>0.06573129007519563</v>
       </c>
       <c r="P3">
-        <v>0.1248385761982887</v>
+        <v>0.06573129007519561</v>
       </c>
       <c r="Q3">
-        <v>14.63430680858222</v>
+        <v>25.33819495217111</v>
       </c>
       <c r="R3">
-        <v>131.70876127724</v>
+        <v>228.04375456954</v>
       </c>
       <c r="S3">
-        <v>0.0592322796660625</v>
+        <v>0.03774384035009007</v>
       </c>
       <c r="T3">
-        <v>0.0592322796660625</v>
+        <v>0.03774384035009005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>43.99002066666666</v>
+        <v>76.16539233333333</v>
       </c>
       <c r="H4">
-        <v>131.970062</v>
+        <v>228.496177</v>
       </c>
       <c r="I4">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125765</v>
       </c>
       <c r="J4">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125764</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.318188</v>
+        <v>0.3774316666666667</v>
       </c>
       <c r="N4">
-        <v>0.954564</v>
+        <v>1.132295</v>
       </c>
       <c r="O4">
-        <v>0.1194028282500784</v>
+        <v>0.07457486933698085</v>
       </c>
       <c r="P4">
-        <v>0.1194028282500784</v>
+        <v>0.07457486933698083</v>
       </c>
       <c r="Q4">
-        <v>13.99709669588533</v>
+        <v>28.74723097069056</v>
       </c>
       <c r="R4">
-        <v>125.973870262968</v>
+        <v>258.725078736215</v>
       </c>
       <c r="S4">
-        <v>0.05665317509384108</v>
+        <v>0.04282194916855898</v>
       </c>
       <c r="T4">
-        <v>0.05665317509384108</v>
+        <v>0.04282194916855896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>43.99002066666666</v>
+        <v>76.16539233333333</v>
       </c>
       <c r="H5">
-        <v>131.970062</v>
+        <v>228.496177</v>
       </c>
       <c r="I5">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125765</v>
       </c>
       <c r="J5">
-        <v>0.4744709645837378</v>
+        <v>0.5742142031125764</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09660600000000001</v>
+        <v>0.5793803333333334</v>
       </c>
       <c r="N5">
-        <v>0.289818</v>
+        <v>1.738141</v>
       </c>
       <c r="O5">
-        <v>0.0362522459235643</v>
+        <v>0.1144769145534063</v>
       </c>
       <c r="P5">
-        <v>0.03625224592356429</v>
+        <v>0.1144769145534063</v>
       </c>
       <c r="Q5">
-        <v>4.249699936523999</v>
+        <v>44.12873039855078</v>
       </c>
       <c r="R5">
-        <v>38.247299428716</v>
+        <v>397.158573586957</v>
       </c>
       <c r="S5">
-        <v>0.01720063809168043</v>
+        <v>0.06573427026507074</v>
       </c>
       <c r="T5">
-        <v>0.01720063809168043</v>
+        <v>0.06573427026507071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>15.568867</v>
       </c>
       <c r="I6">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313545</v>
       </c>
       <c r="J6">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313544</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.917360666666667</v>
+        <v>3.771625333333333</v>
       </c>
       <c r="N6">
-        <v>5.752082000000001</v>
+        <v>11.314876</v>
       </c>
       <c r="O6">
-        <v>0.7195063496280686</v>
+        <v>0.7452169260344172</v>
       </c>
       <c r="P6">
-        <v>0.7195063496280685</v>
+        <v>0.7452169260344171</v>
       </c>
       <c r="Q6">
-        <v>9.950377736788223</v>
+        <v>19.57331106283244</v>
       </c>
       <c r="R6">
-        <v>89.55339963109401</v>
+        <v>176.159799565492</v>
       </c>
       <c r="S6">
-        <v>0.04027410143832443</v>
+        <v>0.02915645448591426</v>
       </c>
       <c r="T6">
-        <v>0.04027410143832441</v>
+        <v>0.02915645448591425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>15.568867</v>
       </c>
       <c r="I7">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313545</v>
       </c>
       <c r="J7">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313544</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3326733333333334</v>
+        <v>0.3326733333333333</v>
       </c>
       <c r="N7">
-        <v>0.9980200000000001</v>
+        <v>0.99802</v>
       </c>
       <c r="O7">
-        <v>0.1248385761982887</v>
+        <v>0.06573129007519563</v>
       </c>
       <c r="P7">
-        <v>0.1248385761982887</v>
+        <v>0.06573129007519561</v>
       </c>
       <c r="Q7">
         <v>1.726448960371111</v>
@@ -883,10 +883,10 @@
         <v>15.53804064334</v>
       </c>
       <c r="S7">
-        <v>0.006987793066489062</v>
+        <v>0.002571722810398643</v>
       </c>
       <c r="T7">
-        <v>0.006987793066489061</v>
+        <v>0.002571722810398642</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>15.568867</v>
       </c>
       <c r="I8">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313545</v>
       </c>
       <c r="J8">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313544</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.318188</v>
+        <v>0.3774316666666667</v>
       </c>
       <c r="N8">
-        <v>0.954564</v>
+        <v>1.132295</v>
       </c>
       <c r="O8">
-        <v>0.1194028282500784</v>
+        <v>0.07457486933698085</v>
       </c>
       <c r="P8">
-        <v>0.1194028282500784</v>
+        <v>0.07457486933698083</v>
       </c>
       <c r="Q8">
-        <v>1.651275550998667</v>
+        <v>1.958727806640556</v>
       </c>
       <c r="R8">
-        <v>14.861479958988</v>
+        <v>17.628550259765</v>
       </c>
       <c r="S8">
-        <v>0.006683529088314928</v>
+        <v>0.00291772597703486</v>
       </c>
       <c r="T8">
-        <v>0.006683529088314927</v>
+        <v>0.002917725977034859</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>15.568867</v>
       </c>
       <c r="I9">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313545</v>
       </c>
       <c r="J9">
-        <v>0.05597462963202916</v>
+        <v>0.03912478832313544</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.09660600000000001</v>
+        <v>0.5793803333333334</v>
       </c>
       <c r="N9">
-        <v>0.289818</v>
+        <v>1.738141</v>
       </c>
       <c r="O9">
-        <v>0.0362522459235643</v>
+        <v>0.1144769145534063</v>
       </c>
       <c r="P9">
-        <v>0.03625224592356429</v>
+        <v>0.1144769145534063</v>
       </c>
       <c r="Q9">
-        <v>0.5013486551340001</v>
+        <v>3.006765117360778</v>
       </c>
       <c r="R9">
-        <v>4.512137896206</v>
+        <v>27.060886056247</v>
       </c>
       <c r="S9">
-        <v>0.002029206038900751</v>
+        <v>0.004478885049787687</v>
       </c>
       <c r="T9">
-        <v>0.00202920603890075</v>
+        <v>0.004478885049787685</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.51765933333333</v>
+        <v>51.18420533333333</v>
       </c>
       <c r="H10">
-        <v>130.552978</v>
+        <v>153.552616</v>
       </c>
       <c r="I10">
-        <v>0.4693761332092086</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="J10">
-        <v>0.4693761332092085</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.917360666666667</v>
+        <v>3.771625333333333</v>
       </c>
       <c r="N10">
-        <v>5.752082000000001</v>
+        <v>11.314876</v>
       </c>
       <c r="O10">
-        <v>0.7195063496280686</v>
+        <v>0.7452169260344172</v>
       </c>
       <c r="P10">
-        <v>0.7195063496280685</v>
+        <v>0.7452169260344171</v>
       </c>
       <c r="Q10">
-        <v>83.43904831113291</v>
+        <v>193.0476455017351</v>
       </c>
       <c r="R10">
-        <v>750.951434800196</v>
+        <v>1737.428809515616</v>
       </c>
       <c r="S10">
-        <v>0.3377191082078957</v>
+        <v>0.2875642691017317</v>
       </c>
       <c r="T10">
-        <v>0.3377191082078956</v>
+        <v>0.2875642691017316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>43.51765933333333</v>
+        <v>51.18420533333333</v>
       </c>
       <c r="H11">
-        <v>130.552978</v>
+        <v>153.552616</v>
       </c>
       <c r="I11">
-        <v>0.4693761332092086</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="J11">
-        <v>0.4693761332092085</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3326733333333334</v>
+        <v>0.3326733333333333</v>
       </c>
       <c r="N11">
-        <v>0.9980200000000001</v>
+        <v>0.99802</v>
       </c>
       <c r="O11">
-        <v>0.1248385761982887</v>
+        <v>0.06573129007519563</v>
       </c>
       <c r="P11">
-        <v>0.1248385761982887</v>
+        <v>0.06573129007519561</v>
       </c>
       <c r="Q11">
-        <v>14.47716478928445</v>
+        <v>17.02762020225778</v>
       </c>
       <c r="R11">
-        <v>130.29448310356</v>
+        <v>153.24858182032</v>
       </c>
       <c r="S11">
-        <v>0.0585962481712959</v>
+        <v>0.02536438683454509</v>
       </c>
       <c r="T11">
-        <v>0.05859624817129589</v>
+        <v>0.02536438683454509</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.51765933333333</v>
+        <v>51.18420533333333</v>
       </c>
       <c r="H12">
-        <v>130.552978</v>
+        <v>153.552616</v>
       </c>
       <c r="I12">
-        <v>0.4693761332092086</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="J12">
-        <v>0.4693761332092085</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.318188</v>
+        <v>0.3774316666666667</v>
       </c>
       <c r="N12">
-        <v>0.954564</v>
+        <v>1.132295</v>
       </c>
       <c r="O12">
-        <v>0.1194028282500784</v>
+        <v>0.07457486933698085</v>
       </c>
       <c r="P12">
-        <v>0.1194028282500784</v>
+        <v>0.07457486933698083</v>
       </c>
       <c r="Q12">
-        <v>13.84679698795467</v>
+        <v>19.31853992596889</v>
       </c>
       <c r="R12">
-        <v>124.621172891592</v>
+        <v>173.86685933372</v>
       </c>
       <c r="S12">
-        <v>0.05604483781826505</v>
+        <v>0.02877694674537708</v>
       </c>
       <c r="T12">
-        <v>0.05604483781826505</v>
+        <v>0.02877694674537708</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.51765933333333</v>
+        <v>51.18420533333333</v>
       </c>
       <c r="H13">
-        <v>130.552978</v>
+        <v>153.552616</v>
       </c>
       <c r="I13">
-        <v>0.4693761332092086</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="J13">
-        <v>0.4693761332092085</v>
+        <v>0.3858799485835225</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.09660600000000001</v>
+        <v>0.5793803333333334</v>
       </c>
       <c r="N13">
-        <v>0.289818</v>
+        <v>1.738141</v>
       </c>
       <c r="O13">
-        <v>0.0362522459235643</v>
+        <v>0.1144769145534063</v>
       </c>
       <c r="P13">
-        <v>0.03625224592356429</v>
+        <v>0.1144769145534063</v>
       </c>
       <c r="Q13">
-        <v>4.204066997556001</v>
+        <v>29.65512194742844</v>
       </c>
       <c r="R13">
-        <v>37.836602978004</v>
+        <v>266.896097526856</v>
       </c>
       <c r="S13">
-        <v>0.0170159390117519</v>
+        <v>0.04417434590186874</v>
       </c>
       <c r="T13">
-        <v>0.0170159390117519</v>
+        <v>0.04417434590186874</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01652833333333334</v>
+        <v>0.103602</v>
       </c>
       <c r="H14">
-        <v>0.049585</v>
+        <v>0.310806</v>
       </c>
       <c r="I14">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654878</v>
       </c>
       <c r="J14">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654877</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.917360666666667</v>
+        <v>3.771625333333333</v>
       </c>
       <c r="N14">
-        <v>5.752082000000001</v>
+        <v>11.314876</v>
       </c>
       <c r="O14">
-        <v>0.7195063496280686</v>
+        <v>0.7452169260344172</v>
       </c>
       <c r="P14">
-        <v>0.7195063496280685</v>
+        <v>0.7452169260344171</v>
       </c>
       <c r="Q14">
-        <v>0.0316907762188889</v>
+        <v>0.390747927784</v>
       </c>
       <c r="R14">
-        <v>0.2852169859700001</v>
+        <v>3.516731350056</v>
       </c>
       <c r="S14">
-        <v>0.0001282682496946834</v>
+        <v>0.0005820591179145579</v>
       </c>
       <c r="T14">
-        <v>0.0001282682496946834</v>
+        <v>0.0005820591179145577</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01652833333333334</v>
+        <v>0.103602</v>
       </c>
       <c r="H15">
-        <v>0.049585</v>
+        <v>0.310806</v>
       </c>
       <c r="I15">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654878</v>
       </c>
       <c r="J15">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654877</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3326733333333334</v>
+        <v>0.3326733333333333</v>
       </c>
       <c r="N15">
-        <v>0.9980200000000001</v>
+        <v>0.99802</v>
       </c>
       <c r="O15">
-        <v>0.1248385761982887</v>
+        <v>0.06573129007519563</v>
       </c>
       <c r="P15">
-        <v>0.1248385761982887</v>
+        <v>0.06573129007519561</v>
       </c>
       <c r="Q15">
-        <v>0.005498535744444446</v>
+        <v>0.03446562268</v>
       </c>
       <c r="R15">
-        <v>0.04948682170000001</v>
+        <v>0.31019060412</v>
       </c>
       <c r="S15">
-        <v>2.225529444126282E-05</v>
+        <v>5.134008016182299E-05</v>
       </c>
       <c r="T15">
-        <v>2.225529444126282E-05</v>
+        <v>5.134008016182297E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01652833333333334</v>
+        <v>0.103602</v>
       </c>
       <c r="H16">
-        <v>0.049585</v>
+        <v>0.310806</v>
       </c>
       <c r="I16">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654878</v>
       </c>
       <c r="J16">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654877</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.318188</v>
+        <v>0.3774316666666667</v>
       </c>
       <c r="N16">
-        <v>0.954564</v>
+        <v>1.132295</v>
       </c>
       <c r="O16">
-        <v>0.1194028282500784</v>
+        <v>0.07457486933698085</v>
       </c>
       <c r="P16">
-        <v>0.1194028282500784</v>
+        <v>0.07457486933698083</v>
       </c>
       <c r="Q16">
-        <v>0.005259117326666667</v>
+        <v>0.03910267553000001</v>
       </c>
       <c r="R16">
-        <v>0.04733205594</v>
+        <v>0.3519240797700001</v>
       </c>
       <c r="S16">
-        <v>2.128624965735116E-05</v>
+        <v>5.824744600993103E-05</v>
       </c>
       <c r="T16">
-        <v>2.128624965735115E-05</v>
+        <v>5.824744600993101E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.01652833333333334</v>
+        <v>0.103602</v>
       </c>
       <c r="H17">
-        <v>0.049585</v>
+        <v>0.310806</v>
       </c>
       <c r="I17">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654878</v>
       </c>
       <c r="J17">
-        <v>0.0001782725750245131</v>
+        <v>0.0007810599807654877</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.09660600000000001</v>
+        <v>0.5793803333333334</v>
       </c>
       <c r="N17">
-        <v>0.289818</v>
+        <v>1.738141</v>
       </c>
       <c r="O17">
-        <v>0.0362522459235643</v>
+        <v>0.1144769145534063</v>
       </c>
       <c r="P17">
-        <v>0.03625224592356429</v>
+        <v>0.1144769145534063</v>
       </c>
       <c r="Q17">
-        <v>0.00159673617</v>
+        <v>0.06002496129400001</v>
       </c>
       <c r="R17">
-        <v>0.01437062553</v>
+        <v>0.5402246516460001</v>
       </c>
       <c r="S17">
-        <v>6.462781231215716E-06</v>
+        <v>8.941333667917595E-05</v>
       </c>
       <c r="T17">
-        <v>6.462781231215714E-06</v>
+        <v>8.941333667917592E-05</v>
       </c>
     </row>
   </sheetData>
